--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Qrfp-P2ry14.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Qrfp-P2ry14.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.155514</v>
+        <v>0.6923383333333333</v>
       </c>
       <c r="H2">
-        <v>0.466542</v>
+        <v>2.077015</v>
       </c>
       <c r="I2">
-        <v>0.08583299818856246</v>
+        <v>0.2954746751438028</v>
       </c>
       <c r="J2">
-        <v>0.08583299818856245</v>
+        <v>0.2954746751438028</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.002878</v>
+        <v>0.2949276666666666</v>
       </c>
       <c r="N2">
-        <v>0.008634000000000001</v>
+        <v>0.884783</v>
       </c>
       <c r="O2">
-        <v>0.0001992333783889058</v>
+        <v>0.01958234361069057</v>
       </c>
       <c r="P2">
-        <v>0.0001992333783889058</v>
+        <v>0.01958234361069057</v>
       </c>
       <c r="Q2">
-        <v>0.0004475692920000001</v>
+        <v>0.2041897291938889</v>
       </c>
       <c r="R2">
-        <v>0.004028123628000001</v>
+        <v>1.837707562745</v>
       </c>
       <c r="S2">
-        <v>1.710079820635613E-05</v>
+        <v>0.005786086616923118</v>
       </c>
       <c r="T2">
-        <v>1.710079820635613E-05</v>
+        <v>0.005786086616923118</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.155514</v>
+        <v>0.6923383333333333</v>
       </c>
       <c r="H3">
-        <v>0.466542</v>
+        <v>2.077015</v>
       </c>
       <c r="I3">
-        <v>0.08583299818856246</v>
+        <v>0.2954746751438028</v>
       </c>
       <c r="J3">
-        <v>0.08583299818856245</v>
+        <v>0.2954746751438028</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>18.901246</v>
       </c>
       <c r="O3">
-        <v>0.4361546324229548</v>
+        <v>0.4183293461133303</v>
       </c>
       <c r="P3">
-        <v>0.4361546324229548</v>
+        <v>0.4183293461133303</v>
       </c>
       <c r="Q3">
-        <v>0.9798027901480001</v>
+        <v>4.362019051187778</v>
       </c>
       <c r="R3">
-        <v>8.818225111332</v>
+        <v>39.25817146069</v>
       </c>
       <c r="S3">
-        <v>0.03743645977469261</v>
+        <v>0.1236057276459557</v>
       </c>
       <c r="T3">
-        <v>0.0374364597746926</v>
+        <v>0.1236057276459557</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.155514</v>
+        <v>0.6923383333333333</v>
       </c>
       <c r="H4">
-        <v>0.466542</v>
+        <v>2.077015</v>
       </c>
       <c r="I4">
-        <v>0.08583299818856246</v>
+        <v>0.2954746751438028</v>
       </c>
       <c r="J4">
-        <v>0.08583299818856245</v>
+        <v>0.2954746751438028</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.76861</v>
+        <v>0.7642679999999999</v>
       </c>
       <c r="N4">
-        <v>5.305829999999999</v>
+        <v>2.292804</v>
       </c>
       <c r="O4">
-        <v>0.1224343799000704</v>
+        <v>0.05074518357604722</v>
       </c>
       <c r="P4">
-        <v>0.1224343799000704</v>
+        <v>0.05074518357604721</v>
       </c>
       <c r="Q4">
-        <v>0.27504361554</v>
+        <v>0.5291320333399999</v>
       </c>
       <c r="R4">
-        <v>2.47539253986</v>
+        <v>4.762188300059999</v>
       </c>
       <c r="S4">
-        <v>0.01050890990818051</v>
+        <v>0.01499391663224519</v>
       </c>
       <c r="T4">
-        <v>0.01050890990818051</v>
+        <v>0.01499391663224518</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.155514</v>
+        <v>0.6923383333333333</v>
       </c>
       <c r="H5">
-        <v>0.466542</v>
+        <v>2.077015</v>
       </c>
       <c r="I5">
-        <v>0.08583299818856246</v>
+        <v>0.2954746751438028</v>
       </c>
       <c r="J5">
-        <v>0.08583299818856245</v>
+        <v>0.2954746751438028</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.373467333333333</v>
+        <v>7.701286333333333</v>
       </c>
       <c r="N5">
-        <v>19.120402</v>
+        <v>23.103859</v>
       </c>
       <c r="O5">
-        <v>0.4412117542985859</v>
+        <v>0.5113431266999319</v>
       </c>
       <c r="P5">
-        <v>0.4412117542985859</v>
+        <v>0.5113431266999319</v>
       </c>
       <c r="Q5">
-        <v>0.991163398876</v>
+        <v>5.331895744542777</v>
       </c>
       <c r="R5">
-        <v>8.920470589883999</v>
+        <v>47.98706170088499</v>
       </c>
       <c r="S5">
-        <v>0.037870527707483</v>
+        <v>0.1510889442486787</v>
       </c>
       <c r="T5">
-        <v>0.03787052770748298</v>
+        <v>0.1510889442486787</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>2.857696</v>
       </c>
       <c r="I6">
-        <v>0.5257503410013721</v>
+        <v>0.4065337983884298</v>
       </c>
       <c r="J6">
-        <v>0.5257503410013721</v>
+        <v>0.4065337983884298</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -803,28 +803,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.002878</v>
+        <v>0.2949276666666666</v>
       </c>
       <c r="N6">
-        <v>0.008634000000000001</v>
+        <v>0.884783</v>
       </c>
       <c r="O6">
-        <v>0.0001992333783889058</v>
+        <v>0.01958234361069057</v>
       </c>
       <c r="P6">
-        <v>0.0001992333783889058</v>
+        <v>0.01958234361069057</v>
       </c>
       <c r="Q6">
-        <v>0.002741483029333333</v>
+        <v>0.2809378711075555</v>
       </c>
       <c r="R6">
-        <v>0.024673347264</v>
+        <v>2.528440839968</v>
       </c>
       <c r="S6">
-        <v>0.0001047470166268226</v>
+        <v>0.007960884529401437</v>
       </c>
       <c r="T6">
-        <v>0.0001047470166268226</v>
+        <v>0.007960884529401437</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>2.857696</v>
       </c>
       <c r="I7">
-        <v>0.5257503410013721</v>
+        <v>0.4065337983884298</v>
       </c>
       <c r="J7">
-        <v>0.5257503410013721</v>
+        <v>0.4065337983884298</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>18.901246</v>
       </c>
       <c r="O7">
-        <v>0.4361546324229548</v>
+        <v>0.4183293461133303</v>
       </c>
       <c r="P7">
-        <v>0.4361546324229548</v>
+        <v>0.4183293461133303</v>
       </c>
       <c r="Q7">
         <v>6.001557232135111</v>
@@ -883,10 +883,10 @@
         <v>54.014015089216</v>
       </c>
       <c r="S7">
-        <v>0.2293084467256966</v>
+        <v>0.1700650180528003</v>
       </c>
       <c r="T7">
-        <v>0.2293084467256966</v>
+        <v>0.1700650180528003</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>2.857696</v>
       </c>
       <c r="I8">
-        <v>0.5257503410013721</v>
+        <v>0.4065337983884298</v>
       </c>
       <c r="J8">
-        <v>0.5257503410013721</v>
+        <v>0.4065337983884298</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.76861</v>
+        <v>0.7642679999999999</v>
       </c>
       <c r="N8">
-        <v>5.305829999999999</v>
+        <v>2.292804</v>
       </c>
       <c r="O8">
-        <v>0.1224343799000704</v>
+        <v>0.05074518357604722</v>
       </c>
       <c r="P8">
-        <v>0.1224343799000704</v>
+        <v>0.05074518357604721</v>
       </c>
       <c r="Q8">
-        <v>1.684716574186666</v>
+        <v>0.7280152021759999</v>
       </c>
       <c r="R8">
-        <v>15.16244916768</v>
+        <v>6.552136819583999</v>
       </c>
       <c r="S8">
-        <v>0.06436991698275354</v>
+        <v>0.02062963222908864</v>
       </c>
       <c r="T8">
-        <v>0.06436991698275354</v>
+        <v>0.02062963222908864</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>2.857696</v>
       </c>
       <c r="I9">
-        <v>0.5257503410013721</v>
+        <v>0.4065337983884298</v>
       </c>
       <c r="J9">
-        <v>0.5257503410013721</v>
+        <v>0.4065337983884298</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.373467333333333</v>
+        <v>7.701286333333333</v>
       </c>
       <c r="N9">
-        <v>19.120402</v>
+        <v>23.103859</v>
       </c>
       <c r="O9">
-        <v>0.4412117542985859</v>
+        <v>0.5113431266999319</v>
       </c>
       <c r="P9">
-        <v>0.4412117542985859</v>
+        <v>0.5113431266999319</v>
       </c>
       <c r="Q9">
-        <v>6.071144034865777</v>
+        <v>7.33597838320711</v>
       </c>
       <c r="R9">
-        <v>54.64029631379199</v>
+        <v>66.023805448864</v>
       </c>
       <c r="S9">
-        <v>0.2319672302762951</v>
+        <v>0.2078782635771395</v>
       </c>
       <c r="T9">
-        <v>0.2319672302762951</v>
+        <v>0.2078782635771395</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,22 +1027,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.2459126666666667</v>
+        <v>0.3086113333333333</v>
       </c>
       <c r="H10">
-        <v>0.737738</v>
+        <v>0.925834</v>
       </c>
       <c r="I10">
-        <v>0.1357268250610528</v>
+        <v>0.1317084856811759</v>
       </c>
       <c r="J10">
-        <v>0.1357268250610528</v>
+        <v>0.1317084856811759</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1051,28 +1051,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.002878</v>
+        <v>0.2949276666666666</v>
       </c>
       <c r="N10">
-        <v>0.008634000000000001</v>
+        <v>0.884783</v>
       </c>
       <c r="O10">
-        <v>0.0001992333783889058</v>
+        <v>0.01958234361069057</v>
       </c>
       <c r="P10">
-        <v>0.0001992333783889058</v>
+        <v>0.01958234361069057</v>
       </c>
       <c r="Q10">
-        <v>0.0007077366546666667</v>
+        <v>0.09101802044688889</v>
       </c>
       <c r="R10">
-        <v>0.006369629892000001</v>
+        <v>0.819162184022</v>
       </c>
       <c r="S10">
-        <v>2.704131389491355E-05</v>
+        <v>0.002579160823052505</v>
       </c>
       <c r="T10">
-        <v>2.704131389491355E-05</v>
+        <v>0.002579160823052505</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.2459126666666667</v>
+        <v>0.3086113333333333</v>
       </c>
       <c r="H11">
-        <v>0.737738</v>
+        <v>0.925834</v>
       </c>
       <c r="I11">
-        <v>0.1357268250610528</v>
+        <v>0.1317084856811759</v>
       </c>
       <c r="J11">
-        <v>0.1357268250610528</v>
+        <v>0.1317084856811759</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>18.901246</v>
       </c>
       <c r="O11">
-        <v>0.4361546324229548</v>
+        <v>0.4183293461133303</v>
       </c>
       <c r="P11">
-        <v>0.4361546324229548</v>
+        <v>0.4183293461133303</v>
       </c>
       <c r="Q11">
-        <v>1.549351935727556</v>
+        <v>1.944379576573778</v>
       </c>
       <c r="R11">
-        <v>13.944167421548</v>
+        <v>17.499416189164</v>
       </c>
       <c r="S11">
-        <v>0.05919788349443816</v>
+        <v>0.05509752469258324</v>
       </c>
       <c r="T11">
-        <v>0.05919788349443818</v>
+        <v>0.05509752469258323</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.2459126666666667</v>
+        <v>0.3086113333333333</v>
       </c>
       <c r="H12">
-        <v>0.737738</v>
+        <v>0.925834</v>
       </c>
       <c r="I12">
-        <v>0.1357268250610528</v>
+        <v>0.1317084856811759</v>
       </c>
       <c r="J12">
-        <v>0.1357268250610528</v>
+        <v>0.1317084856811759</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.76861</v>
+        <v>0.7642679999999999</v>
       </c>
       <c r="N12">
-        <v>5.305829999999999</v>
+        <v>2.292804</v>
       </c>
       <c r="O12">
-        <v>0.1224343799000704</v>
+        <v>0.05074518357604722</v>
       </c>
       <c r="P12">
-        <v>0.1224343799000704</v>
+        <v>0.05074518357604721</v>
       </c>
       <c r="Q12">
-        <v>0.4349236013933333</v>
+        <v>0.235861766504</v>
       </c>
       <c r="R12">
-        <v>3.91431241254</v>
+        <v>2.122755898536</v>
       </c>
       <c r="S12">
-        <v>0.01661762966215533</v>
+        <v>0.006683571284414457</v>
       </c>
       <c r="T12">
-        <v>0.01661762966215533</v>
+        <v>0.006683571284414456</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,22 +1213,22 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.2459126666666667</v>
+        <v>0.3086113333333333</v>
       </c>
       <c r="H13">
-        <v>0.737738</v>
+        <v>0.925834</v>
       </c>
       <c r="I13">
-        <v>0.1357268250610528</v>
+        <v>0.1317084856811759</v>
       </c>
       <c r="J13">
-        <v>0.1357268250610528</v>
+        <v>0.1317084856811759</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.373467333333333</v>
+        <v>7.701286333333333</v>
       </c>
       <c r="N13">
-        <v>19.120402</v>
+        <v>23.103859</v>
       </c>
       <c r="O13">
-        <v>0.4412117542985859</v>
+        <v>0.5113431266999319</v>
       </c>
       <c r="P13">
-        <v>0.4412117542985859</v>
+        <v>0.5113431266999319</v>
       </c>
       <c r="Q13">
-        <v>1.567316347852889</v>
+        <v>2.376704243711778</v>
       </c>
       <c r="R13">
-        <v>14.105847130676</v>
+        <v>21.390338193406</v>
       </c>
       <c r="S13">
-        <v>0.05988427059056437</v>
+        <v>0.06734822888112568</v>
       </c>
       <c r="T13">
-        <v>0.05988427059056438</v>
+        <v>0.06734822888112568</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.4578286666666667</v>
+        <v>0.3896243333333334</v>
       </c>
       <c r="H14">
-        <v>1.373486</v>
+        <v>1.168873</v>
       </c>
       <c r="I14">
-        <v>0.2526898357490127</v>
+        <v>0.1662830407865915</v>
       </c>
       <c r="J14">
-        <v>0.2526898357490127</v>
+        <v>0.1662830407865915</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1299,28 +1299,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.002878</v>
+        <v>0.2949276666666666</v>
       </c>
       <c r="N14">
-        <v>0.008634000000000001</v>
+        <v>0.884783</v>
       </c>
       <c r="O14">
-        <v>0.0001992333783889058</v>
+        <v>0.01958234361069057</v>
       </c>
       <c r="P14">
-        <v>0.0001992333783889058</v>
+        <v>0.01958234361069057</v>
       </c>
       <c r="Q14">
-        <v>0.001317630902666667</v>
+        <v>0.1149109955065555</v>
       </c>
       <c r="R14">
-        <v>0.011858678124</v>
+        <v>1.034198959559</v>
       </c>
       <c r="S14">
-        <v>5.034424966081351E-05</v>
+        <v>0.003256211641313509</v>
       </c>
       <c r="T14">
-        <v>5.03442496608135E-05</v>
+        <v>0.003256211641313509</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.4578286666666667</v>
+        <v>0.3896243333333334</v>
       </c>
       <c r="H15">
-        <v>1.373486</v>
+        <v>1.168873</v>
       </c>
       <c r="I15">
-        <v>0.2526898357490127</v>
+        <v>0.1662830407865915</v>
       </c>
       <c r="J15">
-        <v>0.2526898357490127</v>
+        <v>0.1662830407865915</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>18.901246</v>
       </c>
       <c r="O15">
-        <v>0.4361546324229548</v>
+        <v>0.4183293461133303</v>
       </c>
       <c r="P15">
-        <v>0.4361546324229548</v>
+        <v>0.4183293461133303</v>
       </c>
       <c r="Q15">
-        <v>2.884510751506222</v>
+        <v>2.454795123973111</v>
       </c>
       <c r="R15">
-        <v>25.960596763556</v>
+        <v>22.093156115758</v>
       </c>
       <c r="S15">
-        <v>0.1102118424281275</v>
+        <v>0.06956107572199104</v>
       </c>
       <c r="T15">
-        <v>0.1102118424281275</v>
+        <v>0.06956107572199104</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.4578286666666667</v>
+        <v>0.3896243333333334</v>
       </c>
       <c r="H16">
-        <v>1.373486</v>
+        <v>1.168873</v>
       </c>
       <c r="I16">
-        <v>0.2526898357490127</v>
+        <v>0.1662830407865915</v>
       </c>
       <c r="J16">
-        <v>0.2526898357490127</v>
+        <v>0.1662830407865915</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.76861</v>
+        <v>0.7642679999999999</v>
       </c>
       <c r="N16">
-        <v>5.305829999999999</v>
+        <v>2.292804</v>
       </c>
       <c r="O16">
-        <v>0.1224343799000704</v>
+        <v>0.05074518357604722</v>
       </c>
       <c r="P16">
-        <v>0.1224343799000704</v>
+        <v>0.05074518357604721</v>
       </c>
       <c r="Q16">
-        <v>0.8097203581533332</v>
+        <v>0.297777409988</v>
       </c>
       <c r="R16">
-        <v>7.287483223379999</v>
+        <v>2.679996689892</v>
       </c>
       <c r="S16">
-        <v>0.03093792334698101</v>
+        <v>0.008438063430298929</v>
       </c>
       <c r="T16">
-        <v>0.03093792334698101</v>
+        <v>0.008438063430298929</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.4578286666666667</v>
+        <v>0.3896243333333334</v>
       </c>
       <c r="H17">
-        <v>1.373486</v>
+        <v>1.168873</v>
       </c>
       <c r="I17">
-        <v>0.2526898357490127</v>
+        <v>0.1662830407865915</v>
       </c>
       <c r="J17">
-        <v>0.2526898357490127</v>
+        <v>0.1662830407865915</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.373467333333333</v>
+        <v>7.701286333333333</v>
       </c>
       <c r="N17">
-        <v>19.120402</v>
+        <v>23.103859</v>
       </c>
       <c r="O17">
-        <v>0.4412117542985859</v>
+        <v>0.5113431266999319</v>
       </c>
       <c r="P17">
-        <v>0.4412117542985859</v>
+        <v>0.5113431266999319</v>
       </c>
       <c r="Q17">
-        <v>2.917956051263555</v>
+        <v>3.000608553434111</v>
       </c>
       <c r="R17">
-        <v>26.261604461372</v>
+        <v>27.005476980907</v>
       </c>
       <c r="S17">
-        <v>0.1114897257242434</v>
+        <v>0.08502768999298797</v>
       </c>
       <c r="T17">
-        <v>0.1114897257242434</v>
+        <v>0.08502768999298797</v>
       </c>
     </row>
   </sheetData>
